--- a/Demo/src/test/resources/TestData.xlsx
+++ b/Demo/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Ven855</t>
+  </si>
+  <si>
+    <t>HP519</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Demo/src/test/resources/TestData.xlsx
+++ b/Demo/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>HP519</t>
+  </si>
+  <si>
+    <t>HP705</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Demo/src/test/resources/TestData.xlsx
+++ b/Demo/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>HP705</t>
+  </si>
+  <si>
+    <t>HP658</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Demo/src/test/resources/TestData.xlsx
+++ b/Demo/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>HP658</t>
+  </si>
+  <si>
+    <t>HP978</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
